--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2514771.494162449</v>
+        <v>-2517507.807183684</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>228.587449548188</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>84.28367893995447</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>82.03146337654412</v>
       </c>
       <c r="F4" t="n">
-        <v>96.59359980192188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>63.68317396692632</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>252.6652313048323</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>178.6301541879401</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1060,7 +1060,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>141.0108249680839</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.0167996798622</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>80.9329567048118</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>72.86717387219832</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>100.4274824880396</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>261.9657095888481</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>71.39698738222857</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>95.81917536083702</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="15">
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>113.4877306469552</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>275.330023919727</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>103.2319066432215</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2485,7 +2485,7 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G25" t="n">
         <v>141.2394908002291</v>
@@ -2530,7 +2530,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972042</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C31" t="n">
         <v>142.9621736065881</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541838</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652578</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808193</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X31" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972051</v>
+        <v>261.899826897206</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652586</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808113</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652574</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,22 +3706,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3740,7 +3740,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3898,25 +3898,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C43" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3943,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -3961,7 +3961,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y43" t="n">
         <v>194.3000058600551</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652547</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>652.5759934195828</v>
+        <v>1206.346846950667</v>
       </c>
       <c r="C2" t="n">
-        <v>652.5759934195828</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="D2" t="n">
-        <v>652.5759934195828</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="E2" t="n">
-        <v>652.5759934195828</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="F2" t="n">
-        <v>652.5759934195828</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
         <v>421.6795797345444</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1768.949738926588</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1416.181083656474</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1042.715325395395</v>
+        <v>1206.346846950667</v>
       </c>
       <c r="Y2" t="n">
-        <v>652.5759934195828</v>
+        <v>1206.346846950667</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.2467865680031</v>
@@ -4416,13 +4416,13 @@
         <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>615.7819952198529</v>
+        <v>1375.82618933619</v>
       </c>
       <c r="C4" t="n">
-        <v>446.845812291946</v>
+        <v>1206.890006408283</v>
       </c>
       <c r="D4" t="n">
-        <v>296.7291728796102</v>
+        <v>1206.890006408283</v>
       </c>
       <c r="E4" t="n">
-        <v>148.8160792972171</v>
+        <v>1124.029942391572</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>977.1399948936613</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>1002.60916787878</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>1174.299679627706</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>1449.530858294981</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>1750.112669035317</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>2048.981932571481</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>2309.019775324693</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>2508.006390496681</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>2459.755921915737</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>2263.127174075598</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.23396574994</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.23396574994</v>
+        <v>2040.148693270334</v>
       </c>
       <c r="V4" t="n">
-        <v>1082.549477544053</v>
+        <v>1785.464205064447</v>
       </c>
       <c r="W4" t="n">
-        <v>1018.223039193623</v>
+        <v>1785.464205064447</v>
       </c>
       <c r="X4" t="n">
-        <v>1018.223039193623</v>
+        <v>1557.474654166429</v>
       </c>
       <c r="Y4" t="n">
-        <v>797.4304600500926</v>
+        <v>1557.474654166429</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1605.165657180484</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C5" t="n">
-        <v>1236.203140240072</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D5" t="n">
-        <v>877.9374416333219</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E5" t="n">
-        <v>877.9374416333219</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
         <v>51.2467865680031</v>
@@ -4598,19 +4598,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.904829220417</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2381.904829220417</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W5" t="n">
-        <v>2381.904829220417</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X5" t="n">
-        <v>2381.904829220417</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y5" t="n">
-        <v>1991.765497244606</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4647,22 +4647,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>590.2049751143496</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495377</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1541.323645957601</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
         <v>2538.001278676482</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>519.0385070447395</v>
+        <v>666.9516006271326</v>
       </c>
       <c r="C7" t="n">
-        <v>350.1023241168326</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D7" t="n">
-        <v>199.9856847044969</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E7" t="n">
         <v>199.9856847044969</v>
@@ -4756,19 +4756,19 @@
         <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1439.817372234358</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="V7" t="n">
-        <v>1185.132884028471</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="W7" t="n">
-        <v>921.4795510185094</v>
+        <v>1297.38219549892</v>
       </c>
       <c r="X7" t="n">
-        <v>921.4795510185094</v>
+        <v>1069.392644600902</v>
       </c>
       <c r="Y7" t="n">
-        <v>700.6869718749792</v>
+        <v>848.6000654573724</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2003.121004338519</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="C8" t="n">
-        <v>1634.158487398107</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="D8" t="n">
-        <v>1634.158487398107</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="E8" t="n">
-        <v>1248.370234799863</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F8" t="n">
-        <v>837.3843300102556</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
@@ -4805,13 +4805,13 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816075</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2355.889659608633</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V8" t="n">
-        <v>2355.889659608633</v>
+        <v>2235.155061732821</v>
       </c>
       <c r="W8" t="n">
-        <v>2003.121004338519</v>
+        <v>1882.386406462707</v>
       </c>
       <c r="X8" t="n">
-        <v>2003.121004338519</v>
+        <v>1508.920648201627</v>
       </c>
       <c r="Y8" t="n">
-        <v>2003.121004338519</v>
+        <v>1118.781316225816</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>168.0008189145198</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>1117.223096727985</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>326.0381161665167</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="C10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="D10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="E10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
         <v>157.1019332386098</v>
@@ -4960,7 +4960,7 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4975,37 +4975,37 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1347.327782578335</v>
+        <v>825.1371474485138</v>
       </c>
       <c r="V10" t="n">
-        <v>1245.885881075264</v>
+        <v>570.452659242627</v>
       </c>
       <c r="W10" t="n">
-        <v>956.4687110383039</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="X10" t="n">
-        <v>728.4791601402866</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.6865809967564</v>
+        <v>305.8408313751036</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951537</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1022.872235754091</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C13" t="n">
-        <v>853.9360528261844</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D13" t="n">
-        <v>703.8194134138487</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578601</v>
@@ -5194,40 +5194,40 @@
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
         <v>1907.987318831765</v>
@@ -5236,13 +5236,13 @@
         <v>1653.302830625878</v>
       </c>
       <c r="W13" t="n">
-        <v>1653.302830625878</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X13" t="n">
-        <v>1425.313279727861</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y13" t="n">
-        <v>1204.520700584331</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="14">
@@ -5258,16 +5258,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5282,19 +5282,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908939</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="17">
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5753,7 +5753,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429803</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2159.833596060193</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1616.073881198505</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5990,7 +5990,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6075,10 +6075,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N24" t="n">
-        <v>1671.859558793925</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O24" t="n">
         <v>1896.176478190825</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F25" t="n">
         <v>411.2214559580114</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
@@ -6181,7 +6181,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
         <v>1483.798285518751</v>
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>923.0670414349511</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1550.665004989558</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
         <v>268.5553036345476</v>
@@ -6379,16 +6379,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6415,7 +6415,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
@@ -6443,28 +6443,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
         <v>151.373419438402</v>
@@ -6622,10 +6622,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6652,7 +6652,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V31" t="n">
         <v>1748.685508594055</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6871,13 +6871,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W34" t="n">
         <v>1483.79828551875</v>
@@ -6923,7 +6923,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,10 +6932,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7114,22 +7114,22 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380727</v>
@@ -7354,25 +7354,25 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7582,10 +7582,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
         <v>2639.297491717215</v>
@@ -7594,22 +7594,22 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7728,25 +7728,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>506.2737913123336</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,64 +7780,64 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384016</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380733</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8064,16 +8064,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186.4490126143851</v>
+        <v>273.6534998179983</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>231.2582814363241</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780643</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>73.66059580999774</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>54.95314511566511</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.9393975111056</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22547,7 +22547,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22559,7 +22559,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>182.960253224766</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>285.4474217385145</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22708,10 +22708,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>64.40249927002505</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22759,19 +22759,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>16.94685411837012</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>222.8398243696647</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23422,13 +23422,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>75.0369752643406</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>69.70496293143182</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>35.12774237125714</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,13 +23938,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>10.85445046951713</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>114.1735436840667</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -26311,31 +26311,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15883.07632636137</v>
+        <v>15883.07632636138</v>
       </c>
       <c r="C2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="D2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="E2" t="n">
+        <v>20178.66499225015</v>
+      </c>
+      <c r="F2" t="n">
         <v>20178.66499225016</v>
-      </c>
-      <c r="F2" t="n">
-        <v>20178.66499225015</v>
       </c>
       <c r="G2" t="n">
         <v>20178.66499225015</v>
       </c>
       <c r="H2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.0442466071</v>
       </c>
       <c r="J2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660708</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
@@ -26347,13 +26347,13 @@
         <v>20526.0442466071</v>
       </c>
       <c r="N2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="O2" t="n">
-        <v>20526.0442466071</v>
-      </c>
       <c r="P2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,16 +26381,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.557953848736361e-11</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363171</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,13 +26399,13 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28315.8713900428</v>
+        <v>28315.87139004279</v>
       </c>
       <c r="C4" t="n">
         <v>134318.0002618638</v>
@@ -26424,40 +26424,40 @@
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
+        <v>8117.312426732015</v>
+      </c>
+      <c r="F4" t="n">
+        <v>8117.312426732015</v>
+      </c>
+      <c r="G4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8117.312426731997</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8117.312426731985</v>
       </c>
       <c r="H4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>16108.17168982547</v>
+        <v>16108.17168982544</v>
       </c>
       <c r="J4" t="n">
-        <v>16108.17168982544</v>
+        <v>16108.1716898255</v>
       </c>
       <c r="K4" t="n">
-        <v>16108.17168982544</v>
+        <v>16108.17168982548</v>
       </c>
       <c r="L4" t="n">
         <v>16108.17168982545</v>
       </c>
       <c r="M4" t="n">
+        <v>16108.17168982543</v>
+      </c>
+      <c r="N4" t="n">
         <v>16108.17168982544</v>
-      </c>
-      <c r="N4" t="n">
-        <v>16108.17168982545</v>
       </c>
       <c r="O4" t="n">
         <v>16108.17168982545</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982545</v>
+        <v>16108.17168982544</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1220122.351079446</v>
+        <v>-1220586.64787147</v>
       </c>
       <c r="C6" t="n">
         <v>-206729.7284551014</v>
@@ -26528,40 +26528,40 @@
         <v>-206729.7284551014</v>
       </c>
       <c r="E6" t="n">
-        <v>-596546.618882935</v>
+        <v>-596581.3568083703</v>
       </c>
       <c r="F6" t="n">
-        <v>-89061.17725838897</v>
+        <v>-89095.91518382466</v>
       </c>
       <c r="G6" t="n">
-        <v>-89061.17725838891</v>
+        <v>-89095.91518382463</v>
       </c>
       <c r="H6" t="n">
-        <v>-89061.17725838895</v>
+        <v>-89095.91518382471</v>
       </c>
       <c r="I6" t="n">
-        <v>-118173.9612907656</v>
+        <v>-118173.9612907654</v>
       </c>
       <c r="J6" t="n">
         <v>-266351.4211071163</v>
       </c>
       <c r="K6" t="n">
-        <v>-98746.24329713374</v>
+        <v>-98746.24329713383</v>
       </c>
       <c r="L6" t="n">
+        <v>-98746.24329713375</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-231353.5370260604</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-118173.9612907655</v>
+      </c>
+      <c r="O6" t="n">
         <v>-98746.24329713377</v>
       </c>
-      <c r="M6" t="n">
-        <v>-231353.5370260605</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-118173.9612907656</v>
-      </c>
-      <c r="O6" t="n">
-        <v>-98746.24329713374</v>
-      </c>
       <c r="P6" t="n">
-        <v>-98746.24329713374</v>
+        <v>-98746.2432971338</v>
       </c>
     </row>
   </sheetData>
@@ -26701,7 +26701,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="I2" t="n">
         <v>24.28464749203971</v>
@@ -26710,22 +26710,22 @@
         <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L2" t="n">
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26923,16 +26923,16 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26941,13 +26941,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.750155989720952e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241349</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,16 +27160,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.197442310920451e-14</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203964</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.973799150320701e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>48.82744822100936</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27588,16 +27588,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>269.2803000028305</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>102.0178103158506</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
@@ -27670,16 +27670,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>72.41509594052192</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27828,16 +27828,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>145.2163291531167</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>25.50619865672883</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>170.1122934236502</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>254.8850845979366</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>151.7101608357884</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>24.55728874774286</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="15">
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30460,7 +30460,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>405.637736314577</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>369.1789913099997</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32084,10 +32084,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>339.9772972286971</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32324,10 +32324,10 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32561,7 +32561,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496635</v>
+        <v>593.5422977113961</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -32570,7 +32570,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32710,7 +32710,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
         <v>867.846407116256</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>369.1789913099997</v>
+        <v>338.6542681503486</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>491.597732526532</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,16 +33272,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33509,16 +33509,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>333.9544784328825</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34448,10 +34448,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>402.2342772868842</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34784,16 +34784,16 @@
         <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>553.3803448964255</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>622.455381029198</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -35015,7 +35015,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215491</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35024,16 +35024,16 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>464.8576954028716</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>24.58388860977091</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>117.9333660065825</v>
       </c>
       <c r="K9" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>436.6197581489557</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2960242312436</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35732,10 +35732,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>197.8432633066788</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35890,13 +35890,13 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35972,10 +35972,10 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36133,7 +36133,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36209,7 +36209,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663302</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>226.5827468655553</v>
+        <v>196.0580237059041</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36519,7 +36519,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L25" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M25" t="n">
         <v>450.5570744930848</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>349.0014880820875</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,16 +36920,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37157,16 +37157,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>191.358233988438</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37479,10 +37479,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37704,22 +37704,22 @@
         <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>263.67989750701</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
